--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453A603-44BC-4A46-90FA-AE9139B415C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE09974-A5BD-4F64-9846-A3D9333C71E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26610" yWindow="-190" windowWidth="24700" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,26 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>Cloud computing</t>
-  </si>
-  <si>
-    <t>Data pipeline: from Iot sensor data to visual dashboard</t>
-  </si>
-  <si>
-    <t>Migration and cloud pricing</t>
-  </si>
-  <si>
-    <t>Organizing data pipelines with Lambda</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Lab</t>
   </si>
   <si>
-    <t>… and data platforms</t>
-  </si>
-  <si>
     <t>Theory</t>
   </si>
   <si>
@@ -64,28 +49,67 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Where</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Data pipeline: simple machine learning tasks</t>
-  </si>
-  <si>
     <t>Seminar</t>
   </si>
   <si>
-    <t>Data Platform Modules: Storage and ingestion</t>
-  </si>
-  <si>
-    <t>Data Platform Modules: Remaining services</t>
-  </si>
-  <si>
-    <t>Amount of slides</t>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Aula 2.4, 2h (11-13)</t>
+  </si>
+  <si>
+    <t>Lab 3.3, 4h (9-13)</t>
+  </si>
+  <si>
+    <t>Lab 4.2, 2h (9-11)</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Introduction to data platforms</t>
+  </si>
+  <si>
+    <t>Case study on data provenance and versioning</t>
+  </si>
+  <si>
+    <t>Cloud and paas to saas</t>
+  </si>
+  <si>
+    <t>Data pipelines pt 1</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>Data pipelines pt 2</t>
+  </si>
+  <si>
+    <t>AWS ML</t>
+  </si>
+  <si>
+    <t>AWS Migration</t>
+  </si>
+  <si>
+    <t>AWS Batch ingestion + processing</t>
+  </si>
+  <si>
+    <t>AWS Streaming ingestion + processing</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Slides needed (0.5slides/m)</t>
   </si>
 </sst>
 </file>
@@ -109,20 +133,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,16 +165,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -427,211 +465,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>44846</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(D2*60-15)*0.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>44853</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="0">(D3*60-15)*0.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>44853</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>44860</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>44860</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>44867</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>44867</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>44874</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>44874</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>44881</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>44881</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>44888</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>44888</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>44893</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1">
-        <f>SUM(B2:B13)</f>
-        <v>30</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1">
+        <f>SUM(D2:D15)</f>
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:G16" si="1">SUM(F2:F15)</f>
+        <v>150</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE09974-A5BD-4F64-9846-A3D9333C71E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6E7FA-D9E6-4328-8E25-D8AEA1AC2A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26610" yWindow="-190" windowWidth="24700" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,7 +148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,13 +182,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -465,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -506,19 +515,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>44846</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1">
@@ -530,19 +539,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>44853</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1">
@@ -551,19 +560,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>44853</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1">
@@ -575,19 +584,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>44860</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1">
@@ -596,19 +605,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>44860</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1">
@@ -620,19 +629,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>44867</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1">
@@ -641,19 +650,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>44867</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="1">
@@ -665,161 +674,174 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>44874</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F9" s="1">
+        <v>40</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>44874</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>44881</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>44888</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>44881</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>44888</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>44888</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>44888</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>44893</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
         <v>29</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ref="F16:G16" si="1">SUM(F2:F15)</f>
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6E7FA-D9E6-4328-8E25-D8AEA1AC2A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5AFC9-4111-406F-8CFA-579839AA4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26610" yWindow="-190" windowWidth="24700" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Lab</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Seminar</t>
-  </si>
-  <si>
     <t>When</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>Slides needed (0.5slides/m)</t>
+  </si>
+  <si>
+    <t>Seminar bitbang</t>
+  </si>
+  <si>
+    <t>Seminar technogym</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +199,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,37 +504,66 @@
     <col min="5" max="5" width="40.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44846</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -528,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>40</v>
@@ -537,13 +581,35 @@
         <f>(D2*60-15)*0.5</f>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(L3*60-15)*0.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>44853</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -552,19 +618,41 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G13" si="0">(D3*60-15)*0.5</f>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="8">
+        <v>44846</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1">
+        <f>(L4*60-15)*0.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>44853</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -573,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
@@ -582,13 +670,35 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O14" si="1">(L4*60-15)*0.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44860</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -597,19 +707,41 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
+        <v>40</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44860</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -618,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>40</v>
@@ -627,13 +759,35 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6" s="8">
+        <v>44860</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44867</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -642,19 +796,41 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7" s="8">
+        <v>44860</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
+        <v>40</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>44867</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -663,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>40</v>
@@ -672,13 +848,35 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8" s="10">
+        <v>44867</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44874</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
@@ -687,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
@@ -696,13 +894,35 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I9" s="10">
+        <v>44867</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="1">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44874</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -711,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>25</v>
@@ -720,13 +940,35 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10" s="8">
+        <v>44874</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>44881</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>0</v>
@@ -735,19 +977,35 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11" s="8">
+        <v>44874</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>44881</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
@@ -756,19 +1014,38 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I12" s="10">
+        <v>44881</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44888</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>0</v>
@@ -777,19 +1054,38 @@
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13" s="10">
+        <v>44881</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44888</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -798,15 +1094,34 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8">
+        <v>44888</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>44893</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>0</v>
@@ -815,10 +1130,25 @@
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8">
+        <v>44888</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -829,18 +1159,49 @@
         <v>29</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:G16" si="1">SUM(F2:F15)</f>
+        <f t="shared" ref="F16:G16" si="2">SUM(F2:F15)</f>
         <v>215</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I16" s="10">
+        <v>44893</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <f>SUM(L3:L16)</f>
+        <v>29</v>
+      </c>
+      <c r="N17" s="1">
+        <f>SUM(N2:N16)</f>
+        <v>215</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ref="N17:O17" si="3">SUM(O3:O16)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
     </row>
   </sheetData>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5AFC9-4111-406F-8CFA-579839AA4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AA9C9-2741-4B09-9DB9-B0CF28A3FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26610" yWindow="-190" windowWidth="24700" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>Lab</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Case study on data provenance and versioning</t>
   </si>
   <si>
-    <t>Cloud and paas to saas</t>
-  </si>
-  <si>
     <t>Data pipelines pt 1</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>AWS Streaming ingestion + processing</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Slides needed (0.5slides/m)</t>
   </si>
   <si>
@@ -116,6 +110,21 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cloud and XaaS</t>
+  </si>
+  <si>
+    <t>??? Conclusion and summing up</t>
+  </si>
+  <si>
+    <t>Seminar Bitbang</t>
+  </si>
+  <si>
+    <t>Seminar Technogym</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,20 +209,62 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -491,27 +542,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.90625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -534,12 +585,12 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -555,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -565,7 +616,7 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -581,13 +632,13 @@
         <f>(D2*60-15)*0.5</f>
         <v>52.5</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="7">
+        <v>44846</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="1">
@@ -611,7 +662,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -624,20 +675,20 @@
         <f t="shared" ref="G3:G13" si="0">(D3*60-15)*0.5</f>
         <v>52.5</v>
       </c>
-      <c r="I3" s="8">
-        <v>44846</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="6">
+        <v>44853</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1">
         <v>30</v>
@@ -654,14 +705,14 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
@@ -670,13 +721,13 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I4" s="10">
-        <v>44853</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="7">
+        <v>44860</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -686,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O14" si="1">(L4*60-15)*0.5</f>
@@ -700,33 +751,33 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I5" s="10">
-        <v>44853</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="7">
+        <v>44860</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="1">
         <v>40</v>
@@ -743,14 +794,14 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>40</v>
@@ -759,23 +810,23 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I6" s="8">
-        <v>44860</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="6">
+        <v>44867</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
@@ -789,33 +840,33 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I7" s="8">
-        <v>44860</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="6">
+        <v>44867</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="1">
         <v>40</v>
@@ -832,14 +883,14 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>40</v>
@@ -848,23 +899,23 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I8" s="10">
-        <v>44867</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="7">
+        <v>44874</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="1"/>
@@ -878,14 +929,14 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
@@ -894,20 +945,20 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I9" s="10">
-        <v>44867</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="7">
+        <v>44874</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" s="1">
         <v>25</v>
@@ -924,14 +975,14 @@
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>25</v>
@@ -940,20 +991,20 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I10" s="8">
-        <v>44874</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="6">
+        <v>44881</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>2</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="1">
         <v>40</v>
@@ -970,30 +1021,33 @@
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I11" s="8">
-        <v>44874</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="6">
+        <v>44881</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
@@ -1007,33 +1061,33 @@
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I12" s="10">
-        <v>44881</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="7">
+        <v>44888</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>2</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="1"/>
@@ -1047,37 +1101,39 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
+      <c r="E13" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="I13" s="10">
-        <v>44881</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
+      <c r="I13" s="7">
+        <v>44888</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1087,33 +1143,31 @@
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="8">
-        <v>44888</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="E14" s="13"/>
+      <c r="I14" s="6">
+        <v>44893</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1123,88 +1177,124 @@
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="8">
-        <v>44888</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7">
+        <v>44895</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1">
+      <c r="M15" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17">
         <f>SUM(D2:D15)</f>
         <v>29</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E16" s="18"/>
+      <c r="F16" s="17">
         <f t="shared" ref="F16:G16" si="2">SUM(F2:F15)</f>
         <v>215</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="17">
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="I16" s="10">
-        <v>44893</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="7">
+        <v>44895</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="J17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1">
-        <f>SUM(L3:L16)</f>
-        <v>29</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="L16" s="17">
+        <v>2</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="17">
+        <f>SUM(L2:L16)</f>
+        <v>30</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17">
         <f>SUM(N2:N16)</f>
         <v>215</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="N17:O17" si="3">SUM(O3:O16)</f>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+      <c r="O17" s="17">
+        <f>SUM(O2:O16)</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="M15:M16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AA9C9-2741-4B09-9DB9-B0CF28A3FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD4975-0C67-4F0B-B924-203704AA73C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>Lab</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Seminar Technogym</t>
+  </si>
+  <si>
+    <t>AWS Batch ingestion + DWH + Tableau</t>
+  </si>
+  <si>
+    <t>AWS Streaming ingestion + continuous query</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>24</v>
@@ -912,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>24</v>
@@ -1190,7 +1196,7 @@
         <v>44895</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>1</v>
@@ -1224,8 +1230,8 @@
       <c r="I16" s="7">
         <v>44895</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>6</v>
+      <c r="J16" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>0</v>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63477C75-12EB-4E5A-887E-D7916C1B84F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8282AB81-8C08-433E-8BFB-ECD909190439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,10 @@
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -780,6 +784,10 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,7 +885,7 @@
       </c>
       <c r="G17" s="14">
         <f>SUM(G2:G16)</f>
-        <v>460</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8282AB81-8C08-433E-8BFB-ECD909190439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE08BA-372E-4A54-A841-6B690D2DD22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Lab</t>
   </si>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,9 +201,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -206,13 +210,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A13" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +841,7 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1">
@@ -847,62 +862,75 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44895</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14">
-        <f>SUM(D2:D16)</f>
-        <v>30</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14">
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>44900</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20">
+        <f>SUM(D2:D17)</f>
+        <v>34</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20">
         <f>SUM(F2:F16)</f>
         <v>219</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="20">
         <f>SUM(G2:G16)</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E15:E16"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C1:C16 C18:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE08BA-372E-4A54-A841-6B690D2DD22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D18127-7B2E-4CFC-8BC1-5C8D93643079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Lab</t>
   </si>
@@ -103,6 +114,9 @@
   </si>
   <si>
     <t>Lab: Batch processing</t>
+  </si>
+  <si>
+    <t>Lab 3.3, 4 (9-13)</t>
   </si>
 </sst>
 </file>
@@ -139,24 +153,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,12 +185,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -200,12 +196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -213,25 +203,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -524,28 +510,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:A13"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -565,14 +551,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>44846</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
+      <c r="A2" s="15">
+        <v>44860</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -589,13 +575,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44853</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="15">
+        <v>44860</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -613,13 +599,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44860</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="15">
+        <v>44867</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -630,13 +616,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>44860</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15">
+        <v>44867</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -654,13 +640,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>44867</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="15">
+        <v>44874</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1">
@@ -671,13 +657,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>44867</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="15">
+        <v>44874</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -695,13 +681,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44874</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="15">
+        <v>44881</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1">
@@ -716,13 +702,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>44874</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="15">
+        <v>44881</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1">
@@ -740,13 +726,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44881</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="15">
+        <v>44888</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -764,13 +750,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>44881</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="15">
+        <v>44888</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1">
@@ -785,13 +771,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44888</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1">
@@ -806,13 +792,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>44888</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="15">
+        <v>44895</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -829,109 +815,75 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44893</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="15">
+        <v>44900</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>44907</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>44895</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44895</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>44900</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20">
-        <f>SUM(D2:D17)</f>
-        <v>34</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20">
-        <f>SUM(F2:F16)</f>
+        <f>SUM(D2:D15)</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <f>SUM(F2:F15)</f>
         <v>219</v>
       </c>
-      <c r="G18" s="20">
-        <f>SUM(G2:G16)</f>
-        <v>560</v>
+      <c r="G16" s="13">
+        <f>SUM(G2:G15)</f>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E15:E16"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C1:C16 C18:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Theory"</formula>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D18127-7B2E-4CFC-8BC1-5C8D93643079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D9A0C-AE2D-4B15-9B83-F26D739ECB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Lab</t>
   </si>
@@ -92,31 +92,31 @@
     <t>Cloud and XaaS</t>
   </si>
   <si>
-    <t>??? Conclusion and summing up</t>
-  </si>
-  <si>
     <t>Seminar Bitbang</t>
   </si>
   <si>
     <t>Seminar Technogym</t>
   </si>
   <si>
-    <t>AWS Streaming ingestion + continuous query</t>
-  </si>
-  <si>
-    <t>??? AWS ML</t>
-  </si>
-  <si>
     <t>Introduction + Data platform</t>
   </si>
   <si>
     <t>Lab: California housing price</t>
   </si>
   <si>
-    <t>Lab: Batch processing</t>
-  </si>
-  <si>
     <t>Lab 3.3, 4 (9-13)</t>
+  </si>
+  <si>
+    <t>Lab: streaming</t>
+  </si>
+  <si>
+    <t>Lab: batch processing</t>
+  </si>
+  <si>
+    <t>Conclusion and summing up</t>
+  </si>
+  <si>
+    <t>??? Data platform for precision farming</t>
   </si>
 </sst>
 </file>
@@ -153,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,18 +221,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -513,7 +515,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1">
         <f>(D2*60-20)*0.5</f>
@@ -594,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G14" si="0">(D3*60-20)*0.5</f>
+        <f t="shared" ref="G3:G12" si="0">(D3*60-20)*0.5</f>
         <v>50</v>
       </c>
     </row>
@@ -612,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,8 +695,8 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -742,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -763,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -780,15 +782,12 @@
       <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,11 +800,11 @@
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -819,7 +818,7 @@
         <v>44900</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>0</v>
@@ -828,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,7 +835,7 @@
         <v>44907</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>0</v>
@@ -845,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -861,16 +860,16 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13">
         <f>SUM(F2:F15)</f>
-        <v>219</v>
-      </c>
-      <c r="G16" s="13">
+        <v>239</v>
+      </c>
+      <c r="G16" s="13" t="e">
         <f>SUM(G2:G15)</f>
-        <v>450</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D9A0C-AE2D-4B15-9B83-F26D739ECB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F210B0-FDD4-4E7D-B7E4-1A47E5DAC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="2460" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Lab</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Data pipelines pt 2</t>
   </si>
   <si>
-    <t>AWS Migration</t>
-  </si>
-  <si>
     <t>Slides needed (0.5slides/m)</t>
   </si>
   <si>
@@ -116,7 +113,7 @@
     <t>Conclusion and summing up</t>
   </si>
   <si>
-    <t>??? Data platform for precision farming</t>
+    <t>AWS Migration ??? Data platform for precision farming</t>
   </si>
 </sst>
 </file>
@@ -512,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>54</v>
@@ -590,13 +587,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" si="0">(D3*60-20)*0.5</f>
+        <f t="shared" ref="G3:G11" si="0">(D3*60-20)*0.5</f>
         <v>50</v>
       </c>
     </row>
@@ -614,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -729,47 +726,44 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>50</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>44888</v>
+        <v>44895</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,48 +771,47 @@
         <v>44895</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>0</v>
@@ -827,43 +820,26 @@
         <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>44907</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13">
-        <f>SUM(D2:D15)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13">
+        <f>SUM(D2:D14)</f>
         <v>30</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
-        <f>SUM(F2:F15)</f>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <f>SUM(F2:F14)</f>
         <v>239</v>
       </c>
-      <c r="G16" s="13" t="e">
-        <f>SUM(G2:G15)</f>
+      <c r="G15" s="13" t="e">
+        <f>SUM(G2:G14)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\teaching-bigdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F210B0-FDD4-4E7D-B7E4-1A47E5DAC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB56ED-8E2D-4307-A60A-82479303BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="2460" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Lab</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Seminar Technogym</t>
   </si>
   <si>
-    <t>Introduction + Data platform</t>
-  </si>
-  <si>
     <t>Lab: California housing price</t>
   </si>
   <si>
@@ -114,6 +111,21 @@
   </si>
   <si>
     <t>AWS Migration ??? Data platform for precision farming</t>
+  </si>
+  <si>
+    <t>Introduction, Data platform</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Sem</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,14 +205,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,23 +215,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -509,343 +531,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>44860</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13">
+        <f>WEEKDAY(A2)-1</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(E2*60-20)*0.5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="B3" s="13">
+        <f t="shared" ref="B3:B14" si="0">WEEKDAY(A3)-1</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="1">(E3*60-20)*0.5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>44867</v>
+      </c>
+      <c r="B4" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1">
-        <f>(D2*60-20)*0.5</f>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44867</v>
+      </c>
+      <c r="B5" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>44860</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44874</v>
+      </c>
+      <c r="B6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44874</v>
+      </c>
+      <c r="B7" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B8" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B9" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44893</v>
+      </c>
+      <c r="B10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44895</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="I11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44895</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44900</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44907</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9">
+        <f>SUM(E2:E14)</f>
         <v>30</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="0">(D3*60-20)*0.5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>44867</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>44867</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>44874</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>44874</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>44881</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>44881</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>44893</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>44895</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="e">
-        <f t="shared" si="0"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <f>SUM(H2:H14)</f>
+        <v>239</v>
+      </c>
+      <c r="I15" s="9" t="e">
+        <f>SUM(I2:I14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>44895</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>44900</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>44907</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13">
-        <f>SUM(D2:D14)</f>
-        <v>30</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13">
-        <f>SUM(F2:F14)</f>
-        <v>239</v>
-      </c>
-      <c r="G15" s="13" t="e">
-        <f>SUM(G2:G14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\repos\teaching-bigdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB56ED-8E2D-4307-A60A-82479303BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322417EE-AF09-43D6-B013-915FDEC80C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Lab</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Sem</t>
+  </si>
+  <si>
+    <t>Lab California Housing</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,17 +208,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -224,30 +223,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -534,13 +514,13 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -551,10 +531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -583,7 +563,7 @@
       <c r="A2" s="6">
         <v>44860</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="5">
         <f>WEEKDAY(A2)-1</f>
         <v>3</v>
       </c>
@@ -614,7 +594,7 @@
       <c r="A3" s="6">
         <v>44860</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <f t="shared" ref="B3:B14" si="0">WEEKDAY(A3)-1</f>
         <v>3</v>
       </c>
@@ -628,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -645,7 +625,7 @@
       <c r="A4" s="6">
         <v>44867</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -659,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
@@ -669,7 +649,7 @@
       <c r="A5" s="6">
         <v>44867</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -683,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -700,7 +680,7 @@
       <c r="A6" s="6">
         <v>44874</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -724,7 +704,7 @@
       <c r="A7" s="6">
         <v>44874</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -755,7 +735,7 @@
       <c r="A8" s="6">
         <v>44881</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -771,7 +751,7 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="1">
@@ -783,7 +763,7 @@
       <c r="A9" s="6">
         <v>44881</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -814,7 +794,7 @@
       <c r="A10" s="6">
         <v>44893</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -845,7 +825,7 @@
       <c r="A11" s="6">
         <v>44895</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -868,7 +848,7 @@
       <c r="A12" s="6">
         <v>44895</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -898,7 +878,7 @@
       <c r="A13" s="6">
         <v>44900</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -911,10 +891,10 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -922,7 +902,7 @@
       <c r="A14" s="6">
         <v>44907</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -935,38 +915,36 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="10" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
+      <c r="D15" s="8"/>
+      <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
         <v>30</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <f>SUM(H2:H14)</f>
         <v>239</v>
       </c>
-      <c r="I15" s="9" t="e">
+      <c r="I15" s="2" t="e">
         <f>SUM(I2:I14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322417EE-AF09-43D6-B013-915FDEC80C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26DF9C-55D7-4FF2-994B-F7251D70EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Lab</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Lab California Housing</t>
+  </si>
+  <si>
+    <t>Introduction, towards data platforms</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,9 +232,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -517,20 +532,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.54296875" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>44860</v>
       </c>
@@ -567,7 +582,7 @@
         <f>WEEKDAY(A2)-1</f>
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -577,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>25</v>
@@ -590,7 +605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>44860</v>
       </c>
@@ -598,7 +613,7 @@
         <f t="shared" ref="B3:B14" si="0">WEEKDAY(A3)-1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -608,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -621,7 +636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>44867</v>
       </c>
@@ -629,7 +644,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -645,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44867</v>
       </c>
@@ -653,7 +668,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -676,7 +691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>44874</v>
       </c>
@@ -684,7 +699,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -700,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44874</v>
       </c>
@@ -708,7 +723,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -731,7 +746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>44881</v>
       </c>
@@ -739,7 +754,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -759,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>44881</v>
       </c>
@@ -767,7 +782,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -790,7 +805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>44893</v>
       </c>
@@ -798,7 +813,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -821,7 +836,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>44895</v>
       </c>
@@ -829,7 +844,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -844,7 +859,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>44895</v>
       </c>
@@ -852,7 +867,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -874,7 +889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>44900</v>
       </c>
@@ -882,10 +897,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1">
@@ -898,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>44907</v>
       </c>
@@ -906,10 +921,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1">
@@ -922,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26DF9C-55D7-4FF2-994B-F7251D70EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629CE5B-07AB-4435-978C-472908262337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Lab</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Introduction, towards data platforms</t>
+  </si>
+  <si>
+    <t>Cloud and XaaS, Data pipelines pt1</t>
+  </si>
+  <si>
+    <t>Data pipelines pt2</t>
+  </si>
+  <si>
+    <t>Storage, DWH, Tableau</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -529,23 +538,23 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44860</v>
       </c>
@@ -605,7 +614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44860</v>
       </c>
@@ -636,7 +645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44867</v>
       </c>
@@ -660,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44867</v>
       </c>
@@ -678,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -691,7 +700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44874</v>
       </c>
@@ -709,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44874</v>
       </c>
@@ -733,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -746,7 +755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44881</v>
       </c>
@@ -774,7 +783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44881</v>
       </c>
@@ -805,7 +814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44893</v>
       </c>
@@ -836,7 +845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44895</v>
       </c>
@@ -859,7 +868,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44895</v>
       </c>
@@ -889,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44900</v>
       </c>
@@ -913,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44907</v>
       </c>
@@ -937,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Dropbox\workspace\teaching-bigdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629CE5B-07AB-4435-978C-472908262337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CDF1A-6D72-4C36-8F11-C242A9F161E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Lab</t>
   </si>
@@ -47,9 +47,6 @@
     <t>TOT</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>When</t>
   </si>
   <si>
@@ -68,21 +65,6 @@
     <t>What</t>
   </si>
   <si>
-    <t>Slides</t>
-  </si>
-  <si>
-    <t>Data pipelines pt 1</t>
-  </si>
-  <si>
-    <t>EMR</t>
-  </si>
-  <si>
-    <t>Data pipelines pt 2</t>
-  </si>
-  <si>
-    <t>Slides needed (0.5slides/m)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -95,27 +77,9 @@
     <t>Seminar Technogym</t>
   </si>
   <si>
-    <t>Lab: California housing price</t>
-  </si>
-  <si>
     <t>Lab 3.3, 4 (9-13)</t>
   </si>
   <si>
-    <t>Lab: streaming</t>
-  </si>
-  <si>
-    <t>Lab: batch processing</t>
-  </si>
-  <si>
-    <t>Conclusion and summing up</t>
-  </si>
-  <si>
-    <t>AWS Migration ??? Data platform for precision farming</t>
-  </si>
-  <si>
-    <t>Introduction, Data platform</t>
-  </si>
-  <si>
     <t>Topics</t>
   </si>
   <si>
@@ -128,19 +92,22 @@
     <t>Sem</t>
   </si>
   <si>
-    <t>Lab California Housing</t>
-  </si>
-  <si>
     <t>Introduction, towards data platforms</t>
   </si>
   <si>
-    <t>Cloud and XaaS, Data pipelines pt1</t>
-  </si>
-  <si>
-    <t>Data pipelines pt2</t>
-  </si>
-  <si>
-    <t>Storage, DWH, Tableau</t>
+    <t>Lab: from raw data to ML, data profiling and data provenance</t>
+  </si>
+  <si>
+    <t>Data pipelines in cloud</t>
+  </si>
+  <si>
+    <t>Lab: Migration</t>
+  </si>
+  <si>
+    <t>Adv</t>
+  </si>
+  <si>
+    <t>Lab: DL, DWH</t>
   </si>
 </sst>
 </file>
@@ -177,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,13 +153,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -229,22 +199,31 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -535,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,425 +527,369 @@
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>44860</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>WEEKDAY(A2)-1</f>
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1">
-        <f>(E2*60-20)*0.5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM($E$2:E2)/$E$15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>44860</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B14" si="0">WEEKDAY(A3)-1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I11" si="1">(E3*60-20)*0.5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="F3" s="13"/>
+      <c r="G3" s="12">
+        <f>SUM($E$2:E3)/$E$15</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>44867</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="G4" s="12">
+        <f>SUM($E$2:E4)/$E$15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>44867</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12">
+        <f>SUM($E$2:E5)/$E$15</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>44874</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM($E$2:E6)/$E$15</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>44874</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12">
+        <f>SUM($E$2:E7)/$E$15</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>44881</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="G8" s="11">
+        <f>SUM($E$2:E8)/$E$15</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>44881</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11">
+        <f>SUM($E$2:E9)/$E$15</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>44893</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM($E$2:E10)/$E$15</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>44895</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="I11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11">
+        <f>SUM($E$2:E11)/$E$15</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>44895</v>
       </c>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="G12" s="11">
+        <f>SUM($E$2:E12)/$E$15</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>44900</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>29</v>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM($E$2:E13)/$E$15</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>44907</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>29</v>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM($E$2:E14)/$E$15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2">
         <f>SUM(E2:E14)</f>
         <v>30</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f>SUM(H2:H14)</f>
-        <v>239</v>
-      </c>
-      <c r="I15" s="2" t="e">
-        <f>SUM(I2:I14)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Theory"</formula>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CDF1A-6D72-4C36-8F11-C242A9F161E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F276FA8-986B-4EEB-97B4-EFFF39C009DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Lab</t>
   </si>
@@ -220,11 +218,11 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +515,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +569,7 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="12">
@@ -596,7 +594,7 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="12">
         <f>SUM($E$2:E3)/$E$15</f>
         <v>0.13333333333333333</v>
@@ -760,7 +758,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -777,7 +775,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44895</v>
       </c>
@@ -785,7 +783,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -794,7 +792,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="11">
         <f>SUM($E$2:E11)/$E$15</f>
         <v>0.66666666666666663</v>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F276FA8-986B-4EEB-97B4-EFFF39C009DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE256FEE-864A-4255-B945-3D9924E82BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Lab</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -96,16 +93,34 @@
     <t>Lab: from raw data to ML, data profiling and data provenance</t>
   </si>
   <si>
-    <t>Data pipelines in cloud</t>
-  </si>
-  <si>
-    <t>Lab: Migration</t>
-  </si>
-  <si>
     <t>Adv</t>
   </si>
   <si>
     <t>Lab: DL, DWH</t>
+  </si>
+  <si>
+    <t>Lab: DL, DWH pt.2</t>
+  </si>
+  <si>
+    <t>Data pipelines on cloud (Storage)</t>
+  </si>
+  <si>
+    <t>Data pipelines on cloud (Computing) + Migration</t>
+  </si>
+  <si>
+    <t>Data pipelines on cloud (Streaming) + Summing up</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>23 + 27</t>
+  </si>
+  <si>
+    <t>13 + 52</t>
+  </si>
+  <si>
+    <t>Hands on!</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,12 +547,12 @@
     <col min="7" max="7" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -549,10 +567,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44860</v>
       </c>
@@ -570,14 +591,17 @@
         <v>2</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="12">
         <f>SUM($E$2:E2)/$E$15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44860</v>
       </c>
@@ -599,8 +623,9 @@
         <f>SUM($E$2:E3)/$E$15</f>
         <v>0.13333333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44867</v>
       </c>
@@ -618,14 +643,15 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="12">
         <f>SUM($E$2:E4)/$E$15</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44867</v>
       </c>
@@ -649,8 +675,11 @@
         <f>SUM($E$2:E5)/$E$15</f>
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44874</v>
       </c>
@@ -668,14 +697,15 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="12">
         <f>SUM($E$2:E6)/$E$15</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44874</v>
       </c>
@@ -693,14 +723,17 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="12">
         <f>SUM($E$2:E7)/$E$15</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44881</v>
       </c>
@@ -720,12 +753,13 @@
       <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <f>SUM($E$2:E8)/$E$15</f>
         <v>0.46666666666666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44881</v>
       </c>
@@ -743,14 +777,17 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="11">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12">
         <f>SUM($E$2:E9)/$E$15</f>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44893</v>
       </c>
@@ -768,14 +805,15 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G10" s="11">
         <f>SUM($E$2:E10)/$E$15</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44895</v>
       </c>
@@ -789,18 +827,21 @@
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G11" s="11">
         <f>SUM($E$2:E11)/$E$15</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44895</v>
       </c>
@@ -808,24 +849,25 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="11">
         <f>SUM($E$2:E12)/$E$15</f>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44900</v>
       </c>
@@ -837,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -849,8 +891,9 @@
         <f>SUM($E$2:E13)/$E$15</f>
         <v>0.8666666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44907</v>
       </c>
@@ -862,7 +905,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -874,8 +917,9 @@
         <f>SUM($E$2:E14)/$E$15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
@@ -887,8 +931,9 @@
       <c r="F15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE256FEE-864A-4255-B945-3D9924E82BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10C775-D6BD-4781-97DC-B3CB4DC59BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2565" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10C775-D6BD-4781-97DC-B3CB4DC59BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304E79E-3AA6-4D78-91AE-715D226642ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2565" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Lab</t>
   </si>
@@ -157,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +176,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,9 +197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,9 +206,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,14 +221,21 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +539,8 @@
     <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -566,7 +562,7 @@
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -574,17 +570,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44860</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>WEEKDAY(A2)-1</f>
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -593,86 +589,86 @@
       <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12">
-        <f>SUM($E$2:E2)/$E$15</f>
+      <c r="G2" s="10">
+        <f>SUM($E$2:E2)/$E$17</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44860</v>
       </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B14" si="0">WEEKDAY(A3)-1</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B16" si="0">WEEKDAY(A3)-1</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="12">
-        <f>SUM($E$2:E3)/$E$15</f>
+      <c r="G3" s="10">
+        <f>SUM($E$2:E3)/$E$17</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44867</v>
       </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12">
-        <f>SUM($E$2:E4)/$E$15</f>
+      <c r="G4" s="10">
+        <f>SUM($E$2:E4)/$E$17</f>
         <v>0.2</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44867</v>
       </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12">
-        <f>SUM($E$2:E5)/$E$15</f>
+      <c r="G5" s="10">
+        <f>SUM($E$2:E5)/$E$17</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="H5" s="1">
@@ -680,53 +676,53 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44874</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12">
-        <f>SUM($E$2:E6)/$E$15</f>
+      <c r="G6" s="10">
+        <f>SUM($E$2:E6)/$E$17</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44874</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12">
-        <f>SUM($E$2:E7)/$E$15</f>
+      <c r="G7" s="10">
+        <f>SUM($E$2:E7)/$E$17</f>
         <v>0.4</v>
       </c>
       <c r="H7" s="1">
@@ -734,53 +730,53 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44881</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM($E$2:E8)/$E$15</f>
+      <c r="G8" s="10">
+        <f>SUM($E$2:E8)/$E$17</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44881</v>
       </c>
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12">
-        <f>SUM($E$2:E9)/$E$15</f>
+      <c r="G9" s="10">
+        <f>SUM($E$2:E9)/$E$17</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -788,147 +784,197 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
+        <v>44888</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44888</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>44893</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM($E$2:E10)/$E$15</f>
+      <c r="G12" s="10">
+        <f>SUM($E$2:E12)/$E$17</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>44895</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="11">
-        <f>SUM($E$2:E11)/$E$15</f>
+      <c r="G13" s="9">
+        <f>SUM($E$2:E13)/$E$17</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>44895</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM($E$2:E12)/$E$15</f>
+      <c r="G14" s="9">
+        <f>SUM($E$2:E14)/$E$17</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>44900</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="11">
-        <f>SUM($E$2:E13)/$E$15</f>
+      <c r="G15" s="9">
+        <f>SUM($E$2:E15)/$E$17</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>44907</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM($E$2:E14)/$E$15</f>
+      <c r="G16" s="9">
+        <f>SUM($E$2:E16)/$E$17</f>
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2">
-        <f>SUM(E2:E14)</f>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2">
+        <f>SUM(E2:E16)</f>
         <v>30</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -954,5 +1000,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:G8" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304E79E-3AA6-4D78-91AE-715D226642ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5672A5-5DEA-46F1-AC2F-D27F1DB3F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Lab</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>Hands on!</t>
+  </si>
+  <si>
+    <t>Aula 2.12, 4 (9-13)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,20 +233,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,14 +593,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$17</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -614,12 +621,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$17</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -638,7 +645,7 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10">
@@ -664,7 +671,7 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
@@ -692,7 +699,7 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="10">
@@ -718,7 +725,7 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="10">
@@ -746,7 +753,7 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="10">
@@ -772,7 +779,7 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10">
@@ -800,10 +807,10 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
@@ -825,10 +832,10 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="1"/>
@@ -841,7 +848,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -850,7 +857,7 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="10">
@@ -867,7 +874,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -876,7 +883,7 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="9">
@@ -895,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -904,7 +911,7 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="9">
@@ -921,8 +928,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
@@ -930,7 +937,7 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="9">
@@ -947,8 +954,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
@@ -956,7 +963,7 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="9">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5672A5-5DEA-46F1-AC2F-D27F1DB3F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calendar AA 2223" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Lab</t>
   </si>
@@ -235,14 +235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +593,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
-        <f>SUM($E$2:E2)/$E$17</f>
+        <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -609,7 +609,7 @@
         <v>44860</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B16" si="0">WEEKDAY(A3)-1</f>
+        <f t="shared" ref="B3:B17" si="0">WEEKDAY(A3)-1</f>
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -621,12 +621,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="10">
-        <f>SUM($E$2:E3)/$E$17</f>
+        <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="10">
-        <f>SUM($E$2:E4)/$E$17</f>
+        <f>SUM($E$2:E4)/$E$18</f>
         <v>0.2</v>
       </c>
       <c r="H4" s="1"/>
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <f>SUM($E$2:E5)/$E$17</f>
+        <f>SUM($E$2:E5)/$E$18</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="H5" s="1">
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="10">
-        <f>SUM($E$2:E6)/$E$17</f>
+        <f>SUM($E$2:E6)/$E$18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H6" s="1"/>
@@ -729,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="10">
-        <f>SUM($E$2:E7)/$E$17</f>
+        <f>SUM($E$2:E7)/$E$18</f>
         <v>0.4</v>
       </c>
       <c r="H7" s="1">
@@ -757,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM($E$2:E8)/$E$17</f>
+        <f>SUM($E$2:E8)/$E$18</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="H8" s="1"/>
@@ -783,7 +783,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM($E$2:E9)/$E$17</f>
+        <f>SUM($E$2:E9)/$E$18</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -861,7 +861,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM($E$2:E12)/$E$17</f>
+        <f>SUM($E$2:E12)/$E$18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="H12" s="1"/>
@@ -880,15 +880,11 @@
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9">
-        <f>SUM($E$2:E13)/$E$17</f>
-        <v>0.73333333333333328</v>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="1">
         <v>27</v>
@@ -911,12 +907,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM($E$2:E14)/$E$17</f>
-        <v>0.73333333333333328</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -928,7 +920,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -940,48 +932,74 @@
       <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
-        <f>SUM($E$2:E15)/$E$17</f>
-        <v>0.8666666666666667</v>
+      <c r="G15" s="10">
+        <f>SUM($E$2:E15)/$E$18</f>
+        <v>0.8</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <v>44902</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM($E$2:E16)/$E$18</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>44907</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9">
-        <f>SUM($E$2:E16)/$E$17</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="G17" s="10">
+        <f>SUM($E$2:E17)/$E$18</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2">
-        <f>SUM(E2:E16)</f>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2">
+        <f>SUM(E2:E17)</f>
         <v>30</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
